--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.045267</v>
+        <v>35.71508866666667</v>
       </c>
       <c r="H2">
-        <v>171.135801</v>
+        <v>107.145266</v>
       </c>
       <c r="I2">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="J2">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7190439999999999</v>
+        <v>0.9785706666666668</v>
       </c>
       <c r="N2">
-        <v>2.157132</v>
+        <v>2.935712000000001</v>
       </c>
       <c r="O2">
-        <v>0.03867922735216097</v>
+        <v>0.04994923768046061</v>
       </c>
       <c r="P2">
-        <v>0.03867922735216097</v>
+        <v>0.04994923768046061</v>
       </c>
       <c r="Q2">
-        <v>41.018056964748</v>
+        <v>34.94973812659912</v>
       </c>
       <c r="R2">
-        <v>369.162512682732</v>
+        <v>314.5476431393921</v>
       </c>
       <c r="S2">
-        <v>0.009629966866558043</v>
+        <v>0.006944456262566155</v>
       </c>
       <c r="T2">
-        <v>0.009629966866558043</v>
+        <v>0.006944456262566156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.045267</v>
+        <v>35.71508866666667</v>
       </c>
       <c r="H3">
-        <v>171.135801</v>
+        <v>107.145266</v>
       </c>
       <c r="I3">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="J3">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>32.451679</v>
       </c>
       <c r="O3">
-        <v>0.5818864445941869</v>
+        <v>0.5521442932757068</v>
       </c>
       <c r="P3">
-        <v>0.581886444594187</v>
+        <v>0.5521442932757068</v>
       </c>
       <c r="Q3">
-        <v>617.071564384431</v>
+        <v>386.3381976224016</v>
       </c>
       <c r="R3">
-        <v>5553.644079459879</v>
+        <v>3477.043778601615</v>
       </c>
       <c r="S3">
-        <v>0.1448722625848476</v>
+        <v>0.07676477306436616</v>
       </c>
       <c r="T3">
-        <v>0.1448722625848476</v>
+        <v>0.07676477306436617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.045267</v>
+        <v>35.71508866666667</v>
       </c>
       <c r="H4">
-        <v>171.135801</v>
+        <v>107.145266</v>
       </c>
       <c r="I4">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="J4">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.054169</v>
+        <v>1.973864333333333</v>
       </c>
       <c r="N4">
-        <v>3.162507</v>
+        <v>5.921593</v>
       </c>
       <c r="O4">
-        <v>0.05670646360806875</v>
+        <v>0.1007520683922509</v>
       </c>
       <c r="P4">
-        <v>0.05670646360806875</v>
+        <v>0.1007520683922509</v>
       </c>
       <c r="Q4">
-        <v>60.13535206812301</v>
+        <v>70.4967396809709</v>
       </c>
       <c r="R4">
-        <v>541.2181686131071</v>
+        <v>634.4706571287381</v>
       </c>
       <c r="S4">
-        <v>0.01411820770599939</v>
+        <v>0.01400758779921801</v>
       </c>
       <c r="T4">
-        <v>0.01411820770599939</v>
+        <v>0.01400758779921801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.045267</v>
+        <v>35.71508866666667</v>
       </c>
       <c r="H5">
-        <v>171.135801</v>
+        <v>107.145266</v>
       </c>
       <c r="I5">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="J5">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.999487333333334</v>
+        <v>5.821642</v>
       </c>
       <c r="N5">
-        <v>17.998462</v>
+        <v>17.464926</v>
       </c>
       <c r="O5">
-        <v>0.3227278644455833</v>
+        <v>0.2971544006515816</v>
       </c>
       <c r="P5">
-        <v>0.3227278644455833</v>
+        <v>0.2971544006515816</v>
       </c>
       <c r="Q5">
-        <v>342.242356793118</v>
+        <v>207.9204602155907</v>
       </c>
       <c r="R5">
-        <v>3080.181211138062</v>
+        <v>1871.284141940316</v>
       </c>
       <c r="S5">
-        <v>0.08034955334629684</v>
+        <v>0.04131345811031683</v>
       </c>
       <c r="T5">
-        <v>0.08034955334629686</v>
+        <v>0.04131345811031684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.09018966666665</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H6">
         <v>162.270569</v>
       </c>
       <c r="I6">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="J6">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7190439999999999</v>
+        <v>0.9785706666666668</v>
       </c>
       <c r="N6">
-        <v>2.157132</v>
+        <v>2.935712000000001</v>
       </c>
       <c r="O6">
-        <v>0.03867922735216097</v>
+        <v>0.04994923768046061</v>
       </c>
       <c r="P6">
-        <v>0.03867922735216097</v>
+        <v>0.04994923768046061</v>
       </c>
       <c r="Q6">
-        <v>38.89322633867865</v>
+        <v>52.93107296223646</v>
       </c>
       <c r="R6">
-        <v>350.0390370481079</v>
+        <v>476.3796566601281</v>
       </c>
       <c r="S6">
-        <v>0.00913111221472309</v>
+        <v>0.01051731832111204</v>
       </c>
       <c r="T6">
-        <v>0.009131112214723092</v>
+        <v>0.01051731832111204</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.09018966666665</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H7">
         <v>162.270569</v>
       </c>
       <c r="I7">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="J7">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>32.451679</v>
       </c>
       <c r="O7">
-        <v>0.5818864445941869</v>
+        <v>0.5521442932757068</v>
       </c>
       <c r="P7">
-        <v>0.581886444594187</v>
+        <v>0.5521442932757068</v>
       </c>
       <c r="Q7">
-        <v>585.1058240372611</v>
+        <v>585.1058240372612</v>
       </c>
       <c r="R7">
-        <v>5265.95241633535</v>
+        <v>5265.952416335351</v>
       </c>
       <c r="S7">
-        <v>0.1373675428787727</v>
+        <v>0.1162595779482275</v>
       </c>
       <c r="T7">
-        <v>0.1373675428787728</v>
+        <v>0.1162595779482275</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.09018966666665</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H8">
         <v>162.270569</v>
       </c>
       <c r="I8">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="J8">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.054169</v>
+        <v>1.973864333333333</v>
       </c>
       <c r="N8">
-        <v>3.162507</v>
+        <v>5.921593</v>
       </c>
       <c r="O8">
-        <v>0.05670646360806875</v>
+        <v>0.1007520683922509</v>
       </c>
       <c r="P8">
-        <v>0.05670646360806875</v>
+        <v>0.1007520683922509</v>
       </c>
       <c r="Q8">
-        <v>57.02020115072033</v>
+        <v>106.7666961662685</v>
       </c>
       <c r="R8">
-        <v>513.181810356483</v>
+        <v>960.9002654964169</v>
       </c>
       <c r="S8">
-        <v>0.01338685175355392</v>
+        <v>0.02121436930770757</v>
       </c>
       <c r="T8">
-        <v>0.01338685175355392</v>
+        <v>0.02121436930770757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.09018966666665</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H9">
         <v>162.270569</v>
       </c>
       <c r="I9">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="J9">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.999487333333334</v>
+        <v>5.821642</v>
       </c>
       <c r="N9">
-        <v>17.998462</v>
+        <v>17.464926</v>
       </c>
       <c r="O9">
-        <v>0.3227278644455833</v>
+        <v>0.2971544006515816</v>
       </c>
       <c r="P9">
-        <v>0.3227278644455833</v>
+        <v>0.2971544006515816</v>
       </c>
       <c r="Q9">
-        <v>324.5134077627641</v>
+        <v>314.8937199514327</v>
       </c>
       <c r="R9">
-        <v>2920.620669864878</v>
+        <v>2834.043479562893</v>
       </c>
       <c r="S9">
-        <v>0.07618725984985129</v>
+        <v>0.06256887126416556</v>
       </c>
       <c r="T9">
-        <v>0.07618725984985129</v>
+        <v>0.06256887126416556</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.54489333333333</v>
+        <v>101.4529346666666</v>
       </c>
       <c r="H10">
-        <v>151.63468</v>
+        <v>304.358804</v>
       </c>
       <c r="I10">
-        <v>0.2205995742505793</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="J10">
-        <v>0.2205995742505794</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7190439999999999</v>
+        <v>0.9785706666666668</v>
       </c>
       <c r="N10">
-        <v>2.157132</v>
+        <v>2.935712000000001</v>
       </c>
       <c r="O10">
-        <v>0.03867922735216097</v>
+        <v>0.04994923768046061</v>
       </c>
       <c r="P10">
-        <v>0.03867922735216097</v>
+        <v>0.04994923768046061</v>
       </c>
       <c r="Q10">
-        <v>36.34400228197333</v>
+        <v>99.27886591204978</v>
       </c>
       <c r="R10">
-        <v>327.09602053776</v>
+        <v>893.5097932084481</v>
       </c>
       <c r="S10">
-        <v>0.008532621086228072</v>
+        <v>0.01972654958460735</v>
       </c>
       <c r="T10">
-        <v>0.008532621086228074</v>
+        <v>0.01972654958460735</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.54489333333333</v>
+        <v>101.4529346666666</v>
       </c>
       <c r="H11">
-        <v>151.63468</v>
+        <v>304.358804</v>
       </c>
       <c r="I11">
-        <v>0.2205995742505793</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="J11">
-        <v>0.2205995742505794</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>32.451679</v>
       </c>
       <c r="O11">
-        <v>0.5818864445941869</v>
+        <v>0.5521442932757068</v>
       </c>
       <c r="P11">
-        <v>0.581886444594187</v>
+        <v>0.5521442932757068</v>
       </c>
       <c r="Q11">
-        <v>546.7555511808578</v>
+        <v>1097.439356470212</v>
       </c>
       <c r="R11">
-        <v>4920.79996062772</v>
+        <v>9876.954208231915</v>
       </c>
       <c r="S11">
-        <v>0.128363901939661</v>
+        <v>0.2180594196219728</v>
       </c>
       <c r="T11">
-        <v>0.128363901939661</v>
+        <v>0.2180594196219728</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.54489333333333</v>
+        <v>101.4529346666666</v>
       </c>
       <c r="H12">
-        <v>151.63468</v>
+        <v>304.358804</v>
       </c>
       <c r="I12">
-        <v>0.2205995742505793</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="J12">
-        <v>0.2205995742505794</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.054169</v>
+        <v>1.973864333333333</v>
       </c>
       <c r="N12">
-        <v>3.162507</v>
+        <v>5.921593</v>
       </c>
       <c r="O12">
-        <v>0.05670646360806875</v>
+        <v>0.1007520683922509</v>
       </c>
       <c r="P12">
-        <v>0.05670646360806875</v>
+        <v>0.1007520683922509</v>
       </c>
       <c r="Q12">
-        <v>53.28285966030668</v>
+        <v>200.2543292505302</v>
       </c>
       <c r="R12">
-        <v>479.54573694276</v>
+        <v>1802.288963254772</v>
       </c>
       <c r="S12">
-        <v>0.01250942172919594</v>
+        <v>0.03979021032525117</v>
       </c>
       <c r="T12">
-        <v>0.01250942172919594</v>
+        <v>0.03979021032525118</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.54489333333333</v>
+        <v>101.4529346666666</v>
       </c>
       <c r="H13">
-        <v>151.63468</v>
+        <v>304.358804</v>
       </c>
       <c r="I13">
-        <v>0.2205995742505793</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="J13">
-        <v>0.2205995742505794</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.999487333333334</v>
+        <v>5.821642</v>
       </c>
       <c r="N13">
-        <v>17.998462</v>
+        <v>17.464926</v>
       </c>
       <c r="O13">
-        <v>0.3227278644455833</v>
+        <v>0.2971544006515816</v>
       </c>
       <c r="P13">
-        <v>0.3227278644455833</v>
+        <v>0.2971544006515816</v>
       </c>
       <c r="Q13">
-        <v>303.2434473180178</v>
+        <v>590.6226654787225</v>
       </c>
       <c r="R13">
-        <v>2729.19102586216</v>
+        <v>5315.603989308503</v>
       </c>
       <c r="S13">
-        <v>0.07119362949549435</v>
+        <v>0.1173557653920064</v>
       </c>
       <c r="T13">
-        <v>0.07119362949549436</v>
+        <v>0.1173557653920065</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>67.444722</v>
+        <v>65.628919</v>
       </c>
       <c r="H14">
-        <v>202.334166</v>
+        <v>196.886757</v>
       </c>
       <c r="I14">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="J14">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7190439999999999</v>
+        <v>0.9785706666666668</v>
       </c>
       <c r="N14">
-        <v>2.157132</v>
+        <v>2.935712000000001</v>
       </c>
       <c r="O14">
-        <v>0.03867922735216097</v>
+        <v>0.04994923768046061</v>
       </c>
       <c r="P14">
-        <v>0.03867922735216097</v>
+        <v>0.04994923768046061</v>
       </c>
       <c r="Q14">
-        <v>48.49572268576799</v>
+        <v>64.22253501844267</v>
       </c>
       <c r="R14">
-        <v>436.4615041719119</v>
+        <v>578.0028151659841</v>
       </c>
       <c r="S14">
-        <v>0.01138552718465176</v>
+        <v>0.01276091351217506</v>
       </c>
       <c r="T14">
-        <v>0.01138552718465176</v>
+        <v>0.01276091351217505</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>67.444722</v>
+        <v>65.628919</v>
       </c>
       <c r="H15">
-        <v>202.334166</v>
+        <v>196.886757</v>
       </c>
       <c r="I15">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="J15">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>32.451679</v>
       </c>
       <c r="O15">
-        <v>0.5818864445941869</v>
+        <v>0.5521442932757068</v>
       </c>
       <c r="P15">
-        <v>0.581886444594187</v>
+        <v>0.5521442932757068</v>
       </c>
       <c r="Q15">
-        <v>729.5648228627459</v>
+        <v>709.9228708350003</v>
       </c>
       <c r="R15">
-        <v>6566.083405764713</v>
+        <v>6389.305837515002</v>
       </c>
       <c r="S15">
-        <v>0.1712827371909057</v>
+        <v>0.1410605226411403</v>
       </c>
       <c r="T15">
-        <v>0.1712827371909057</v>
+        <v>0.1410605226411403</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>67.444722</v>
+        <v>65.628919</v>
       </c>
       <c r="H16">
-        <v>202.334166</v>
+        <v>196.886757</v>
       </c>
       <c r="I16">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="J16">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.054169</v>
+        <v>1.973864333333333</v>
       </c>
       <c r="N16">
-        <v>3.162507</v>
+        <v>5.921593</v>
       </c>
       <c r="O16">
-        <v>0.05670646360806875</v>
+        <v>0.1007520683922509</v>
       </c>
       <c r="P16">
-        <v>0.05670646360806875</v>
+        <v>0.1007520683922509</v>
       </c>
       <c r="Q16">
-        <v>71.09813514601801</v>
+        <v>129.5425824493223</v>
       </c>
       <c r="R16">
-        <v>639.8832163141619</v>
+        <v>1165.883242043901</v>
       </c>
       <c r="S16">
-        <v>0.01669198241931949</v>
+        <v>0.02573990096007415</v>
       </c>
       <c r="T16">
-        <v>0.01669198241931949</v>
+        <v>0.02573990096007415</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>67.444722</v>
+        <v>65.628919</v>
       </c>
       <c r="H17">
-        <v>202.334166</v>
+        <v>196.886757</v>
       </c>
       <c r="I17">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="J17">
-        <v>0.2943576685488177</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.999487333333334</v>
+        <v>5.821642</v>
       </c>
       <c r="N17">
-        <v>17.998462</v>
+        <v>17.464926</v>
       </c>
       <c r="O17">
-        <v>0.3227278644455833</v>
+        <v>0.2971544006515816</v>
       </c>
       <c r="P17">
-        <v>0.3227278644455833</v>
+        <v>0.2971544006515816</v>
       </c>
       <c r="Q17">
-        <v>404.633755339188</v>
+        <v>382.068071264998</v>
       </c>
       <c r="R17">
-        <v>3641.703798052692</v>
+        <v>3438.612641384982</v>
       </c>
       <c r="S17">
-        <v>0.09499742175394078</v>
+        <v>0.07591630588509274</v>
       </c>
       <c r="T17">
-        <v>0.09499742175394078</v>
+        <v>0.07591630588509274</v>
       </c>
     </row>
   </sheetData>
